--- a/branches/master/StructureDefinition-art-status.xlsx
+++ b/branches/master/StructureDefinition-art-status.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/art-status</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/art-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -348,7 +348,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-art-status</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/ValueSet/vs-art-status</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.80859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
